--- a/fuentes/contenidos/grado09/guion06/ESCALETA_MA_09_06_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion06/ESCALETA_MA_09_06_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Desktop\ejemplos escalestas y cronogramas\Escaletas\Escaletas Matemáticas 9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="381">
   <si>
     <t>Asignatura</t>
   </si>
@@ -245,39 +245,6 @@
     <t>f13b</t>
   </si>
   <si>
-    <t>CONSOLIDACIÓN Y COMPETENCIAS</t>
-  </si>
-  <si>
-    <t>UN COLOR PARA CADA UNA</t>
-  </si>
-  <si>
-    <t>UN SUBRAYADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAS ACTIVIDADES SE PONENE EN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EL ORDEN EN QUE VAN A QUEDAR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">POR ESO TENER EN CUENTA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EL LUGAR DE MAPA Y DE EVALUACIÓN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">fuente es la ruta de cuando es aprovechada </t>
-  </si>
-  <si>
-    <t>F1 NO</t>
-  </si>
-  <si>
-    <t>PUEDE REEMPLAZARSE POR F4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUENTE CORRESPONDE A LO QUE ESTÁ EN EL EXCEL DE RECURSOS DE ESPAÑA </t>
-  </si>
-  <si>
     <t xml:space="preserve">TIPOLOGÍA: </t>
   </si>
   <si>
@@ -677,24 +644,9 @@
     <t>Fin de la unidad</t>
   </si>
   <si>
-    <t>Autoevaluación</t>
-  </si>
-  <si>
-    <t>Webs de referencia</t>
-  </si>
-  <si>
-    <t>MA_09_08_CO</t>
-  </si>
-  <si>
     <t xml:space="preserve">Banco de actividades </t>
   </si>
   <si>
-    <t>Banco de actividades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generar diversas preguntas sobre el tema de la unidad, en lo posible desde la resolución de problemas. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Si van en el cuaderno de estudio </t>
   </si>
   <si>
@@ -707,53 +659,9 @@
     <t xml:space="preserve">La función cuadrática </t>
   </si>
   <si>
-    <t>La función cuadrática en nuestro entorno</t>
-  </si>
-  <si>
-    <t>Interactivo que expone el movimiento parabólico en situaciones cotidianas</t>
-  </si>
-  <si>
-    <t>Identifica funciones cuadráticas en tu entorno</t>
-  </si>
-  <si>
-    <t>Actividad que permite identificar en situaciones del entorno, la función cuadrática</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plantear gráficas de diferentes situaciones, el estudiante debe seleccionar si representa una función cuadrática o no. </t>
-  </si>
-  <si>
-    <t>Se introduce la función cuadrática por medio de imágenes de situaciones reales, en las que se evidencia movimiento parabólico, por ejemplo, cañón disparando, clavadista lanzándose de una superficie alta, etc. Finalizando el recurso se expone la expresión algebraica general: y=ax^2+bx+c.</t>
-  </si>
-  <si>
     <t>Gráfica de la función cuadrática</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Interactivo que expone las gráficas de la funión cuadrática de la forma y = </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ax</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>^2</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Revisar idioma </t>
   </si>
   <si>
@@ -766,68 +674,9 @@
     <t>Las funciones lineales y cuadráticas</t>
   </si>
   <si>
-    <t>La función cuadrática</t>
-  </si>
-  <si>
     <t>MT_10_07</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Actividad que permite identificar la gráfica correspondiente a la función cuadráctica de la forma </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ax</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>^2</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">La idea es que se presenten varias gráficas de la forma y=ax^2 y el estudiante seleccione las ecuaciones que podrían corresponder a esa representación gráfica. </t>
-  </si>
-  <si>
-    <t>Gráfica de la función cuadrática de la forma y=ax^2</t>
-  </si>
-  <si>
-    <t>Identifica la gráfica de la función cuadrática de la forma y=ax^2</t>
-  </si>
-  <si>
     <t>Traslaciones de la función cuadrática</t>
   </si>
   <si>
@@ -873,9 +722,6 @@
     <t>Calcula los vértices de las parábolas</t>
   </si>
   <si>
-    <t>Competencias: ¿Qué sabes de la grafica de una función cuadrática?</t>
-  </si>
-  <si>
     <t>Competencias: calcula los vértices de una parábola</t>
   </si>
   <si>
@@ -894,15 +740,6 @@
     <t>Actividad que propone la representación gráfica de funciones cuadráticas</t>
   </si>
   <si>
-    <t>Se pide hace rla representación gráfica de situaciones problema que se describen con cierta función cuadrática. Es importante que solo se pida la gráfica y un breve análisi de ella, nada profundo, pues solo han visto la graficación de la función</t>
-  </si>
-  <si>
-    <t>Actividad para analizar la función cuadrática desde su representación gráfica</t>
-  </si>
-  <si>
-    <t>Revisar idioma</t>
-  </si>
-  <si>
     <t>Refuerza tu aprendizaje: Las funciones cuadráticas</t>
   </si>
   <si>
@@ -915,9 +752,6 @@
     <t>Interactivo que expone las ecuaciones cuadráticas a patir de situaciones problema</t>
   </si>
   <si>
-    <t xml:space="preserve">Exponer varias ecuaciones cuadráticas a partir de situaciones problema. A medida que se expone, se le hacen preguntas de análisis al estudiante. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Se proponen dos culumnas: si es ecuación cuadrática / no es ecuación cuadrática. Se muestran varias expresiones algebraicas, la idea es que clasifiquen las expresiones en las que si son cuadráticas y en las que no. </t>
   </si>
   <si>
@@ -930,15 +764,9 @@
     <t>Interactivo que expone tres procedimientos para hallar la solución de una ecuación cuadrática</t>
   </si>
   <si>
-    <t>Se explican los tres procedimientos: factorizando, completando cuadrado y aplicando fórmula cuadrática. En lo posible, desde una situación problema y haciendo una breve demostración</t>
-  </si>
-  <si>
     <t>Factorizando</t>
   </si>
   <si>
-    <t>Practica la solución de ecuaciones cuadráticas con el método de factorización</t>
-  </si>
-  <si>
     <t>Actividad que permite practicar la solución de una ecuación cuadrática factorizando</t>
   </si>
   <si>
@@ -948,36 +776,18 @@
     <t>Completando el cuadrado</t>
   </si>
   <si>
-    <t>Practica la solución de ecuaciones cuadráticas con el método de completar el cuadrado</t>
-  </si>
-  <si>
     <t>Actividad que permite practicar la solución de una ecuación cuadrática completando el cuadrado</t>
   </si>
   <si>
     <t xml:space="preserve">Se propone la expresión algebraica y se pide asociar con la expresión que completa el cuadrado y con las soluciones. </t>
   </si>
   <si>
-    <t>Aplicando la fórmula cuadrática</t>
-  </si>
-  <si>
-    <t>Practica la solución de ecuaciones cuadráticas aplicando la fórmula cuadrática</t>
-  </si>
-  <si>
     <t>Actividad que permite practicar la solución de una ecuación cuadrática aplicando la fórmula cuadrática</t>
   </si>
   <si>
-    <t>Se proponen expresiones algebraicas y se pide seleccionar tanto la fórmula cuadrática asociada y las solucione a la misma</t>
-  </si>
-  <si>
     <t>Propiedades de las raíces de una ecuación cuadrática</t>
   </si>
   <si>
-    <t>Interactivo que expone las propiedades de las raíces de una ecuación cuadrática</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se explican las propiedades de las raíces de la ecuación cuadrática. Aprovechar el practica para proponer ejercicios sobre las propiedades. </t>
-  </si>
-  <si>
     <t>Practica las propiedades de una ecuación cuadrática</t>
   </si>
   <si>
@@ -987,15 +797,9 @@
     <t xml:space="preserve">Se proponen como imagen las raíces de la ecuación, o la suma y producto de las mismas, se pide al estudiante seleccionar la ecuación que se relaciona con las mismas, de acuerdo a la aplicación de sus propiedades. </t>
   </si>
   <si>
-    <t>Actividad para ejercitar las habilidades desarrolladas sobre ecuaciones cuadráticas</t>
-  </si>
-  <si>
     <t>Proponer preguntas abiertas sobre ecuaciones cuadráticas y los temas en general</t>
   </si>
   <si>
-    <t>Identifica la parábola de acuerdo con su descripción</t>
-  </si>
-  <si>
     <t>Ecuaciones reducibles a ecuaciones cuadráticas</t>
   </si>
   <si>
@@ -1011,24 +815,12 @@
     <t>Ecuaciones bicuadráticas</t>
   </si>
   <si>
-    <t>Ecuaciones caudráticas con expresiones literales</t>
-  </si>
-  <si>
     <t>Actividad que permite practicar la reducción de ecuaciones con radicales</t>
   </si>
   <si>
-    <t>Practica reducir ecuaciones con radicales</t>
-  </si>
-  <si>
-    <t>Practica reducir ecuaciones bicuadráticas</t>
-  </si>
-  <si>
     <t>Actividad que permite practicar la reducción de ecuaciones bicuadráticas</t>
   </si>
   <si>
-    <t>Practica reducir ecuaciones con expresiones literales</t>
-  </si>
-  <si>
     <t>Actividad que permite practicar la reducción de ecuaciones con expresiones literales</t>
   </si>
   <si>
@@ -1041,24 +833,12 @@
     <t xml:space="preserve">Proponer ecuaciones con expresiones literales para relacionar la ecuación con cuadrática correspondiente y sus soluciones </t>
   </si>
   <si>
-    <t>Actividad para practicar las ecuaciones reducibleas a ecuaciones cuadráticas</t>
-  </si>
-  <si>
     <t>Proponer preguntas abiertas sobre ecuaciones reducibles a ecuaciones cuadráticas</t>
   </si>
   <si>
     <t>Problemas de aplicación de ecuaciones de segundo grado</t>
   </si>
   <si>
-    <t>Sistemas de ecuaciones de segundo grado</t>
-  </si>
-  <si>
-    <t>Interactivo que expone los sistemas de ecuaciones y su solución con ecuaciones cuadráticas</t>
-  </si>
-  <si>
-    <t>Explicar la solución de un sistema de ecuaciones 2x2 que incluya una ecuación cuadrática, a partir de una situación problema. Tener en cuenta hacer énfasis en el análisis de las soluciones (coherencia con el contexto de acuerdo a la situación problema)</t>
-  </si>
-  <si>
     <t>Actividad que propone la solución de problema aplicando sistema de ecuaciones de segundo grado</t>
   </si>
   <si>
@@ -1077,48 +857,18 @@
     <t>Proyecto que permite analizar la aplicación de la función cuadrática en nuestro entorno</t>
   </si>
   <si>
-    <t xml:space="preserve">Proponer un proyecto que permita al estudiante analizar una situación de su entorno aplicando la función cuadrática y sus respectivas soluciones, tanto desde la parte numérica como gráfica. </t>
-  </si>
-  <si>
-    <t>Competencias: comprueba las habilidades desarrolladas al identificar y aplicar la función cuadrática</t>
-  </si>
-  <si>
-    <t>Actividad que permite ejercitar las habilidades desarrolladas con respecto a la función cuadrática</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proponer preguntas abiertas que relacionen todos los temas trabajados en la unidad, a manera de resumen. </t>
-  </si>
-  <si>
-    <t>Evalua tus habilidades sobre la función cuadrática</t>
-  </si>
-  <si>
     <t>Evalua tus conocimientos sobre la función cuadrática</t>
   </si>
   <si>
-    <t>Actividad que permite evaluar las habilidades desarrolladas sobre la función cuadrática</t>
-  </si>
-  <si>
     <t>Actividad que permite evaluar los conocimientos desarrollados sobre la función cuadrática</t>
   </si>
   <si>
     <t>Proponer preguntas para evaluación sobre todos los temas vistos acerca de función cuadrática.</t>
   </si>
   <si>
-    <t>Banco de actividades sobre función cuadrática</t>
-  </si>
-  <si>
     <t>RM</t>
   </si>
   <si>
-    <t>Recursos M aleatorios y diaporama F1</t>
-  </si>
-  <si>
-    <t>Diaporama F1-01</t>
-  </si>
-  <si>
-    <t>RM_01_02_CO</t>
-  </si>
-  <si>
     <t>RF</t>
   </si>
   <si>
@@ -1134,15 +884,9 @@
     <t>Recurso F10B-01</t>
   </si>
   <si>
-    <t>Recurso F7B-01</t>
-  </si>
-  <si>
     <t>Recurso F6-01</t>
   </si>
   <si>
-    <t>Recurso F10B-02</t>
-  </si>
-  <si>
     <t>Recurso F13-01</t>
   </si>
   <si>
@@ -1194,16 +938,7 @@
     <t>Recurso M101A-03</t>
   </si>
   <si>
-    <t>Recurso M101A-04</t>
-  </si>
-  <si>
     <t>Recurso M4A-02</t>
-  </si>
-  <si>
-    <t>Recurso M101A-05</t>
-  </si>
-  <si>
-    <t>Recurso M7A-05</t>
   </si>
   <si>
     <t>Recurso M5A-03</t>
@@ -1247,14 +982,198 @@
     <t>Soluciona situaciones problema aplicando sistemas de ecuaciones de segundo grado</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje:Problemas de aplicación de las ecuaciones cuadráticas</t>
+    <t>El estudio de la función cuadrática</t>
+  </si>
+  <si>
+    <t>Interactivo que presenta el concepto de función cuadrática, su gráfica, sus características y elementos</t>
+  </si>
+  <si>
+    <t>Se introduce la función cuadrática explicando sus caracteriticas, gráficas y elementos. Mostrar algunas aplicaciones en distintos contextos</t>
+  </si>
+  <si>
+    <t>Los tipos de graficas de la función cuadrática</t>
+  </si>
+  <si>
+    <t>Interactivo que muestra los distintos tipos de gráficas de funciones cuadráticas</t>
+  </si>
+  <si>
+    <t>Recurso F6B-01</t>
+  </si>
+  <si>
+    <t>Explica los casos f(x) = ax2; f(x) = ax2 + c; f(x) = ax2 + bx; f(x) = ax2 + bx + c. En las imágenes de la portada colocar una representación de cada caso.</t>
+  </si>
+  <si>
+    <t>Relaciona cada gráfica con sus elementos</t>
+  </si>
+  <si>
+    <t>Actividad que permite identificar la gráfica correspondiente a la función cuadráctica dada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar en los espacios de las imágenes una parte de la función y en la imagen ampliada la gráfica completa. En las alternativas para relacionar deben aparecer elementos como vértice; dominio y eje de simetría </t>
+  </si>
+  <si>
+    <t>Identifica los ceros de una función cuadrática</t>
+  </si>
+  <si>
+    <t>Actividad para relacionar la gráfica de una fucnión cuadrática con sus ceros respectivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En las imágenes las representaciones de funciones cuadráticas y en las opciones los ceros. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la derecha se pueden sugerir varias situaciones problema que se describen con cierta función cuadrática, y a la derecha las posibles representaciones (3 alternativas). </t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: La función cuadrática</t>
+  </si>
+  <si>
+    <t>Actividades sobre La función cuadrática</t>
+  </si>
+  <si>
+    <t>Revisar idioma y nivel de dificultad.</t>
+  </si>
+  <si>
+    <t>Identifica funciones cuadráticas</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Actiidad que permite identificar funciones cuadráticas</t>
+  </si>
+  <si>
+    <t>Se pide al estudinte que identifique las expresiones que corresponden a funciones cuadráticas</t>
+  </si>
+  <si>
+    <t>Completa las expresiones para que cumplan la condición</t>
+  </si>
+  <si>
+    <t>Actividad para completar expresiones que representan funciones cuadráticas, según ciertas condiciones</t>
+  </si>
+  <si>
+    <t>Proponer frases como: f(x) = x2 + ___ - 5, su intercepto con el eje X es (1, 0) ; b(x) = ____ + 7, abre hacia abajo, etc.</t>
+  </si>
+  <si>
+    <t>Recurso M2C-01</t>
+  </si>
+  <si>
+    <t>Identifica la función cuadrática de acuerdo con su descripción</t>
+  </si>
+  <si>
+    <t>Dar imágenes y en las alternativas los opciones para que se seleccione el eje de simetría.</t>
+  </si>
+  <si>
+    <t>Identifica el eje de simetría de la parábola</t>
+  </si>
+  <si>
+    <t>Actividad para relacionar la gráfica de una función cuadrática con su eje de simetría</t>
+  </si>
+  <si>
+    <t>Exponer varias preguntas o situaciones que requieran el planteamiento de ecuaciones cuadráticas</t>
+  </si>
+  <si>
+    <t>Se explican los tres procedimientos: factorizando, completando cuadrado y la fórmula cuadrática. En lo posible, desde una situación problema y haciendo una breve demostración</t>
+  </si>
+  <si>
+    <t>Resuelve ecuaciones cuadráticas con el método de factorización</t>
+  </si>
+  <si>
+    <t>Halla la solución de ecuaciones cuadráticas completando el cuadrado</t>
+  </si>
+  <si>
+    <t>Resuelve ecuaciones cuadráticas aplicando la fórmula cuadrática</t>
+  </si>
+  <si>
+    <t>Se proponen expresiones algebraicas y se pide seleccionar tanto la fórmula cuadrática asociada y las soluciones a la misma. Incluir expresiones fraccionarias como (x2 + x)/5 + (x + 2)x/2 = 0</t>
+  </si>
+  <si>
+    <t>Actividades sobre Las ecuaciones cuadráticas</t>
+  </si>
+  <si>
+    <t>Simplifica ecuaciones con radicales</t>
+  </si>
+  <si>
+    <t>Simplifica ecuaciones bicuadráticas</t>
+  </si>
+  <si>
+    <t>Resuelve ecuaciones con expresiones literales</t>
+  </si>
+  <si>
+    <t>Actividad sobre Las ecuaciones reducibleas a ecuaciones cuadráticas</t>
+  </si>
+  <si>
+    <t>Aplica ecuaciones caudráticas para resolver problemas</t>
+  </si>
+  <si>
+    <t>Ejercicios de aplicación de las ecuaciones cuadráticas</t>
+  </si>
+  <si>
+    <t>Proponer situaciones como la siguiente Patricia tiene 5 años más que Diana. Si la suma
+de los cuadrados de sus edades es 53, ¿cuáles son las edades de Patricia y de Diana?</t>
+  </si>
+  <si>
+    <t>Recurso M1D-01</t>
+  </si>
+  <si>
+    <t>Ejercicios para calcular el discriminante y decidir si una función interseca el eje X.</t>
+  </si>
+  <si>
+    <t>Pedir que utilicen el discriminante para indicar si la gráfica de la función cuadrática interseca al eje X  una, dos o ninguna vez.</t>
+  </si>
+  <si>
+    <t>¿Cúántos cortes tiene la función cuadrática con el eje X?</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Problemas de aplicación de las ecuaciones cuadráticas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ¿Qué sabes de la grafica de una función cuadrática?</t>
+  </si>
+  <si>
+    <t>Actividad para aplicar la definición de función cuadrática, sus caracteristicas y gráficas en construcciones sobre Geogebra</t>
+  </si>
+  <si>
+    <t>Utilizar un F13 con dos, cuatro u 8 pestañas.  Construir el recurso off line</t>
+  </si>
+  <si>
+    <t>Proponer un proyecto que permita al estudiante analizar una situación de su entorno aplicando la función cuadrática y sus respectivas soluciones, tanto desde la parte numérica como gráfica. Utilizar formato F13, off line</t>
+  </si>
+  <si>
+    <t>Competencias: la función cuadrática en geogebra</t>
+  </si>
+  <si>
+    <t>Evaluación</t>
+  </si>
+  <si>
+    <t>MA_09_06_CO</t>
+  </si>
+  <si>
+    <t>Recurso M3A-03</t>
+  </si>
+  <si>
+    <t>Recurso M5A-04</t>
+  </si>
+  <si>
+    <t>Recurso M4A-03</t>
+  </si>
+  <si>
+    <t>Recurso M102AB-01</t>
+  </si>
+  <si>
+    <t>Recurso M102AB-02</t>
+  </si>
+  <si>
+    <t>Recurso M5A-05</t>
+  </si>
+  <si>
+    <t>Si</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1299,21 +1218,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF222222"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1323,7 +1228,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1527,7 +1432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1574,8 +1479,6 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1594,84 +1497,24 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1696,18 +1539,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1720,13 +1551,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1738,6 +1562,61 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6329,3200 +6208,3248 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X181"/>
+  <dimension ref="A1:U182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2:AU46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="52.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="112.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="113.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" customWidth="1"/>
-    <col min="15" max="15" width="29.28515625" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" customWidth="1"/>
-    <col min="17" max="17" width="16.140625" style="48" customWidth="1"/>
-    <col min="18" max="18" width="10" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="42" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="42" customWidth="1"/>
+    <col min="3" max="3" width="31" style="42" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="42" customWidth="1"/>
+    <col min="5" max="5" width="27" style="42" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" style="42" customWidth="1"/>
+    <col min="7" max="7" width="47.5703125" style="42" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="42" customWidth="1"/>
+    <col min="9" max="9" width="10" style="42" customWidth="1"/>
+    <col min="10" max="10" width="62.5703125" style="42" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="42" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="42" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="42" customWidth="1"/>
+    <col min="15" max="15" width="56" style="42" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" style="42" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" style="82" customWidth="1"/>
+    <col min="18" max="18" width="10" style="82" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="82" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23" style="82" customWidth="1"/>
+    <col min="21" max="21" width="15" style="82" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="41" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:21" s="63" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="58" t="s">
+        <v>312</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="I1" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="J1" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="48" t="s">
+        <v>310</v>
+      </c>
+      <c r="L1" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="50"/>
+      <c r="O1" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="P1" s="44" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q1" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="R1" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="S1" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="T1" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="U1" s="60" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="63" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="46"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="N2" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="60"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="E3" s="31"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="65" t="s">
+        <v>319</v>
+      </c>
+      <c r="H3" s="35">
+        <v>1</v>
+      </c>
+      <c r="I3" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="J3" s="67" t="s">
+        <v>320</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="N3" s="34"/>
+      <c r="O3" s="68" t="s">
+        <v>321</v>
+      </c>
+      <c r="P3" s="69" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q3" s="78">
+        <v>6</v>
+      </c>
+      <c r="R3" s="79" t="s">
+        <v>282</v>
+      </c>
+      <c r="S3" s="78" t="s">
+        <v>283</v>
+      </c>
+      <c r="T3" s="80" t="s">
+        <v>288</v>
+      </c>
+      <c r="U3" s="78" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>212</v>
+      </c>
+      <c r="F4" s="40"/>
+      <c r="G4" s="71" t="s">
+        <v>322</v>
+      </c>
+      <c r="H4" s="35">
+        <v>2</v>
+      </c>
+      <c r="I4" s="72" t="s">
+        <v>204</v>
+      </c>
+      <c r="J4" s="73" t="s">
+        <v>323</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="L4" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="N4" s="34"/>
+      <c r="O4" s="74" t="s">
+        <v>325</v>
+      </c>
+      <c r="P4" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q4" s="78">
+        <v>6</v>
+      </c>
+      <c r="R4" s="79" t="s">
+        <v>282</v>
+      </c>
+      <c r="S4" s="78" t="s">
+        <v>283</v>
+      </c>
+      <c r="T4" s="80" t="s">
+        <v>324</v>
+      </c>
+      <c r="U4" s="78" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="E5" s="70"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="71" t="s">
+        <v>336</v>
+      </c>
+      <c r="H5" s="35">
+        <v>3</v>
+      </c>
+      <c r="I5" s="72" t="s">
+        <v>337</v>
+      </c>
+      <c r="J5" s="73" t="s">
+        <v>338</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="L5" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="O5" s="74" t="s">
+        <v>339</v>
+      </c>
+      <c r="P5" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q5" s="78">
+        <v>6</v>
+      </c>
+      <c r="R5" s="79" t="s">
+        <v>281</v>
+      </c>
+      <c r="S5" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="T5" s="80" t="s">
+        <v>303</v>
+      </c>
+      <c r="U5" s="78" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6" s="70"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="71" t="s">
+        <v>367</v>
+      </c>
+      <c r="H6" s="35">
+        <v>4</v>
+      </c>
+      <c r="I6" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="J6" s="73" t="s">
+        <v>230</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="L6" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="74" t="s">
+        <v>231</v>
+      </c>
+      <c r="P6" s="75" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q6" s="78" t="s">
+        <v>214</v>
+      </c>
+      <c r="R6" s="79" t="s">
+        <v>215</v>
+      </c>
+      <c r="S6" s="78" t="s">
+        <v>216</v>
+      </c>
+      <c r="T6" s="81" t="s">
+        <v>229</v>
+      </c>
+      <c r="U6" s="78" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" s="70"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="71" t="s">
+        <v>340</v>
+      </c>
+      <c r="H7" s="35">
+        <v>5</v>
+      </c>
+      <c r="I7" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="J7" s="73" t="s">
+        <v>341</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="L7" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="O7" s="74" t="s">
+        <v>342</v>
+      </c>
+      <c r="P7" s="75" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q7" s="78">
+        <v>7</v>
+      </c>
+      <c r="R7" s="79" t="s">
+        <v>281</v>
+      </c>
+      <c r="S7" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="T7" s="80" t="s">
+        <v>343</v>
+      </c>
+      <c r="U7" s="78" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="E8" s="70" t="s">
+        <v>212</v>
+      </c>
+      <c r="F8" s="40"/>
+      <c r="G8" s="71" t="s">
+        <v>326</v>
+      </c>
+      <c r="H8" s="35">
+        <v>6</v>
+      </c>
+      <c r="I8" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="J8" s="73" t="s">
+        <v>327</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O8" s="74" t="s">
+        <v>328</v>
+      </c>
+      <c r="P8" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q8" s="78">
+        <v>6</v>
+      </c>
+      <c r="R8" s="79" t="s">
+        <v>281</v>
+      </c>
+      <c r="S8" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="T8" s="80" t="s">
+        <v>297</v>
+      </c>
+      <c r="U8" s="78" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="E9" s="70"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="71" t="s">
+        <v>346</v>
+      </c>
+      <c r="H9" s="35">
+        <v>7</v>
+      </c>
+      <c r="I9" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="J9" s="73" t="s">
+        <v>347</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="L9" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="O9" s="74" t="s">
+        <v>345</v>
+      </c>
+      <c r="P9" s="75" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q9" s="78">
+        <v>6</v>
+      </c>
+      <c r="R9" s="79" t="s">
+        <v>281</v>
+      </c>
+      <c r="S9" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="T9" s="80" t="s">
+        <v>290</v>
+      </c>
+      <c r="U9" s="78" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" s="70"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="71" t="s">
+        <v>329</v>
+      </c>
+      <c r="H10" s="35">
+        <v>8</v>
+      </c>
+      <c r="I10" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="J10" s="73" t="s">
+        <v>330</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="L10" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="O10" s="74" t="s">
+        <v>331</v>
+      </c>
+      <c r="P10" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q10" s="78">
+        <v>6</v>
+      </c>
+      <c r="R10" s="79" t="s">
+        <v>281</v>
+      </c>
+      <c r="S10" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="T10" s="80" t="s">
+        <v>302</v>
+      </c>
+      <c r="U10" s="78" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="E11" s="70" t="s">
+        <v>218</v>
+      </c>
+      <c r="F11" s="40"/>
+      <c r="G11" s="71" t="s">
+        <v>218</v>
+      </c>
+      <c r="H11" s="35">
+        <v>9</v>
+      </c>
+      <c r="I11" s="72" t="s">
+        <v>204</v>
+      </c>
+      <c r="J11" s="73" t="s">
+        <v>219</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="L11" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="74" t="s">
+        <v>213</v>
+      </c>
+      <c r="P11" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q11" s="78" t="s">
+        <v>214</v>
+      </c>
+      <c r="R11" s="79" t="s">
+        <v>215</v>
+      </c>
+      <c r="S11" s="78" t="s">
+        <v>216</v>
+      </c>
+      <c r="T11" s="81" t="s">
+        <v>218</v>
+      </c>
+      <c r="U11" s="78" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="E12" s="70" t="s">
+        <v>218</v>
+      </c>
+      <c r="F12" s="40"/>
+      <c r="G12" s="71" t="s">
+        <v>220</v>
+      </c>
+      <c r="H12" s="35">
+        <v>10</v>
+      </c>
+      <c r="I12" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="J12" s="73" t="s">
+        <v>221</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="L12" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="74" t="s">
+        <v>223</v>
+      </c>
+      <c r="P12" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q12" s="78" t="s">
+        <v>214</v>
+      </c>
+      <c r="R12" s="79" t="s">
+        <v>215</v>
+      </c>
+      <c r="S12" s="78" t="s">
+        <v>216</v>
+      </c>
+      <c r="T12" s="81" t="s">
+        <v>222</v>
+      </c>
+      <c r="U12" s="78" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="E13" s="70" t="s">
+        <v>218</v>
+      </c>
+      <c r="F13" s="40"/>
+      <c r="G13" s="71" t="s">
+        <v>224</v>
+      </c>
+      <c r="H13" s="35">
+        <v>11</v>
+      </c>
+      <c r="I13" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="J13" s="73" t="s">
+        <v>225</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="L13" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="74" t="s">
+        <v>226</v>
+      </c>
+      <c r="P13" s="75" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q13" s="78" t="s">
+        <v>214</v>
+      </c>
+      <c r="R13" s="79" t="s">
+        <v>215</v>
+      </c>
+      <c r="S13" s="78" t="s">
+        <v>216</v>
+      </c>
+      <c r="T13" s="81" t="s">
+        <v>227</v>
+      </c>
+      <c r="U13" s="78" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="E14" s="70" t="s">
+        <v>218</v>
+      </c>
+      <c r="F14" s="40"/>
+      <c r="G14" s="71" t="s">
+        <v>344</v>
+      </c>
+      <c r="H14" s="35">
+        <v>12</v>
+      </c>
+      <c r="I14" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="J14" s="73" t="s">
+        <v>236</v>
+      </c>
+      <c r="K14" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="L14" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="O14" s="74" t="s">
+        <v>237</v>
+      </c>
+      <c r="P14" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q14" s="78">
+        <v>6</v>
+      </c>
+      <c r="R14" s="79" t="s">
+        <v>281</v>
+      </c>
+      <c r="S14" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="T14" s="80" t="s">
+        <v>293</v>
+      </c>
+      <c r="U14" s="78" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="E15" s="70" t="s">
+        <v>218</v>
+      </c>
+      <c r="F15" s="40"/>
+      <c r="G15" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="H15" s="35">
+        <v>13</v>
+      </c>
+      <c r="I15" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="J15" s="73" t="s">
+        <v>238</v>
+      </c>
+      <c r="K15" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="L15" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="O15" s="74" t="s">
+        <v>332</v>
+      </c>
+      <c r="P15" s="75" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q15" s="78">
+        <v>6</v>
+      </c>
+      <c r="R15" s="79" t="s">
+        <v>281</v>
+      </c>
+      <c r="S15" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="T15" s="80" t="s">
+        <v>292</v>
+      </c>
+      <c r="U15" s="78" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="E16" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="F16" s="40"/>
+      <c r="G16" s="71" t="s">
+        <v>333</v>
+      </c>
+      <c r="H16" s="35">
+        <v>14</v>
+      </c>
+      <c r="I16" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="J16" s="73" t="s">
+        <v>334</v>
+      </c>
+      <c r="K16" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="L16" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="74" t="s">
+        <v>335</v>
+      </c>
+      <c r="P16" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q16" s="78" t="s">
+        <v>214</v>
+      </c>
+      <c r="R16" s="79" t="s">
+        <v>215</v>
+      </c>
+      <c r="S16" s="78" t="s">
+        <v>216</v>
+      </c>
+      <c r="T16" s="81" t="s">
+        <v>239</v>
+      </c>
+      <c r="U16" s="78" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="E17" s="70"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="71" t="s">
+        <v>240</v>
+      </c>
+      <c r="H17" s="35">
+        <v>15</v>
+      </c>
+      <c r="I17" s="72" t="s">
+        <v>204</v>
+      </c>
+      <c r="J17" s="73" t="s">
+        <v>242</v>
+      </c>
+      <c r="K17" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="L17" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="M17" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="N17" s="34"/>
+      <c r="O17" s="74" t="s">
+        <v>348</v>
+      </c>
+      <c r="P17" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q17" s="78">
+        <v>6</v>
+      </c>
+      <c r="R17" s="79" t="s">
+        <v>282</v>
+      </c>
+      <c r="S17" s="78" t="s">
+        <v>283</v>
+      </c>
+      <c r="T17" s="80" t="s">
+        <v>284</v>
+      </c>
+      <c r="U17" s="78" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="E18" s="70"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="71" t="s">
+        <v>241</v>
+      </c>
+      <c r="H18" s="35">
+        <v>16</v>
+      </c>
+      <c r="I18" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="J18" s="73" t="s">
+        <v>244</v>
+      </c>
+      <c r="K18" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="L18" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="O18" s="74" t="s">
+        <v>243</v>
+      </c>
+      <c r="P18" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q18" s="78">
+        <v>6</v>
+      </c>
+      <c r="R18" s="79" t="s">
+        <v>281</v>
+      </c>
+      <c r="S18" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="T18" s="80" t="s">
+        <v>295</v>
+      </c>
+      <c r="U18" s="78" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="E19" s="70"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="71" t="s">
+        <v>245</v>
+      </c>
+      <c r="H19" s="35">
+        <v>17</v>
+      </c>
+      <c r="I19" s="72" t="s">
+        <v>204</v>
+      </c>
+      <c r="J19" s="73" t="s">
+        <v>246</v>
+      </c>
+      <c r="K19" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="L19" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="M19" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="N19" s="34"/>
+      <c r="O19" s="74" t="s">
+        <v>349</v>
+      </c>
+      <c r="P19" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q19" s="78">
+        <v>6</v>
+      </c>
+      <c r="R19" s="79" t="s">
+        <v>282</v>
+      </c>
+      <c r="S19" s="78" t="s">
+        <v>283</v>
+      </c>
+      <c r="T19" s="80" t="s">
+        <v>286</v>
+      </c>
+      <c r="U19" s="78" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="E20" s="70" t="s">
+        <v>245</v>
+      </c>
+      <c r="F20" s="40"/>
+      <c r="G20" s="71" t="s">
+        <v>350</v>
+      </c>
+      <c r="H20" s="35">
+        <v>18</v>
+      </c>
+      <c r="I20" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="J20" s="73" t="s">
+        <v>248</v>
+      </c>
+      <c r="K20" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="L20" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="O20" s="74" t="s">
+        <v>249</v>
+      </c>
+      <c r="P20" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q20" s="78">
+        <v>6</v>
+      </c>
+      <c r="R20" s="79" t="s">
+        <v>281</v>
+      </c>
+      <c r="S20" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="T20" s="80" t="s">
+        <v>296</v>
+      </c>
+      <c r="U20" s="78" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="E21" s="70" t="s">
+        <v>245</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="G21" s="71" t="s">
+        <v>351</v>
+      </c>
+      <c r="H21" s="35">
+        <v>19</v>
+      </c>
+      <c r="I21" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="J21" s="73" t="s">
+        <v>251</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="L21" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O21" s="74" t="s">
+        <v>252</v>
+      </c>
+      <c r="P21" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q21" s="78">
+        <v>6</v>
+      </c>
+      <c r="R21" s="79" t="s">
+        <v>281</v>
+      </c>
+      <c r="S21" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="T21" s="80" t="s">
+        <v>301</v>
+      </c>
+      <c r="U21" s="78" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="E22" s="70" t="s">
+        <v>245</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="G22" s="71" t="s">
+        <v>352</v>
+      </c>
+      <c r="H22" s="35">
+        <v>20</v>
+      </c>
+      <c r="I22" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="J22" s="73" t="s">
+        <v>253</v>
+      </c>
+      <c r="K22" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="L22" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="O22" s="74" t="s">
+        <v>353</v>
+      </c>
+      <c r="P22" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q22" s="78">
+        <v>6</v>
+      </c>
+      <c r="R22" s="79" t="s">
+        <v>281</v>
+      </c>
+      <c r="S22" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="T22" s="80" t="s">
+        <v>298</v>
+      </c>
+      <c r="U22" s="78" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="E23" s="70"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="71" t="s">
+        <v>365</v>
+      </c>
+      <c r="H23" s="35">
+        <v>21</v>
+      </c>
+      <c r="I23" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="J23" s="73" t="s">
+        <v>363</v>
+      </c>
+      <c r="K23" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="L23" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="O23" s="74" t="s">
+        <v>364</v>
+      </c>
+      <c r="P23" s="75" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q23" s="78">
+        <v>6</v>
+      </c>
+      <c r="R23" s="79" t="s">
+        <v>281</v>
+      </c>
+      <c r="S23" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="T23" s="80" t="s">
+        <v>362</v>
+      </c>
+      <c r="U23" s="78" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="E24" s="70"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="71" t="s">
+        <v>359</v>
+      </c>
+      <c r="H24" s="35">
+        <v>22</v>
+      </c>
+      <c r="I24" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="J24" s="73" t="s">
+        <v>360</v>
+      </c>
+      <c r="K24" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="L24" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="O24" s="76" t="s">
+        <v>361</v>
+      </c>
+      <c r="P24" s="75" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q24" s="78">
+        <v>6</v>
+      </c>
+      <c r="R24" s="79" t="s">
+        <v>281</v>
+      </c>
+      <c r="S24" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="T24" s="80" t="s">
+        <v>305</v>
+      </c>
+      <c r="U24" s="78" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="E25" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="F25" s="40"/>
+      <c r="G25" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="H25" s="35">
+        <v>23</v>
+      </c>
+      <c r="I25" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="J25" s="73" t="s">
+        <v>256</v>
+      </c>
+      <c r="K25" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="L25" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="O25" s="74" t="s">
+        <v>257</v>
+      </c>
+      <c r="P25" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q25" s="78">
+        <v>6</v>
+      </c>
+      <c r="R25" s="79" t="s">
+        <v>281</v>
+      </c>
+      <c r="S25" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="T25" s="80" t="s">
+        <v>299</v>
+      </c>
+      <c r="U25" s="78" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="E26" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="F26" s="40"/>
+      <c r="G26" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="H26" s="35">
+        <v>24</v>
+      </c>
+      <c r="I26" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="J26" s="73" t="s">
+        <v>354</v>
+      </c>
+      <c r="K26" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="L26" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="O26" s="74" t="s">
+        <v>258</v>
+      </c>
+      <c r="P26" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q26" s="78">
+        <v>6</v>
+      </c>
+      <c r="R26" s="79" t="s">
+        <v>281</v>
+      </c>
+      <c r="S26" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="T26" s="80" t="s">
+        <v>294</v>
+      </c>
+      <c r="U26" s="78" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="E27" s="70"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="71" t="s">
+        <v>259</v>
+      </c>
+      <c r="H27" s="35">
+        <v>25</v>
+      </c>
+      <c r="I27" s="72" t="s">
+        <v>204</v>
+      </c>
+      <c r="J27" s="73" t="s">
+        <v>260</v>
+      </c>
+      <c r="K27" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="L27" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="M27" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="N27" s="34"/>
+      <c r="O27" s="74" t="s">
+        <v>261</v>
+      </c>
+      <c r="P27" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q27" s="78">
+        <v>6</v>
+      </c>
+      <c r="R27" s="79" t="s">
+        <v>282</v>
+      </c>
+      <c r="S27" s="78" t="s">
+        <v>283</v>
+      </c>
+      <c r="T27" s="80" t="s">
+        <v>287</v>
+      </c>
+      <c r="U27" s="78" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="E28" s="70"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="71" t="s">
+        <v>355</v>
+      </c>
+      <c r="H28" s="35">
+        <v>26</v>
+      </c>
+      <c r="I28" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="J28" s="73" t="s">
+        <v>264</v>
+      </c>
+      <c r="K28" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="L28" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O28" s="74" t="s">
+        <v>268</v>
+      </c>
+      <c r="P28" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q28" s="78">
+        <v>6</v>
+      </c>
+      <c r="R28" s="79" t="s">
+        <v>281</v>
+      </c>
+      <c r="S28" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="T28" s="80" t="s">
+        <v>374</v>
+      </c>
+      <c r="U28" s="78" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="E29" s="70" t="s">
+        <v>262</v>
+      </c>
+      <c r="F29" s="40"/>
+      <c r="G29" s="71" t="s">
+        <v>356</v>
+      </c>
+      <c r="H29" s="35">
+        <v>27</v>
+      </c>
+      <c r="I29" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="J29" s="73" t="s">
+        <v>265</v>
+      </c>
+      <c r="K29" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="L29" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="O29" s="74" t="s">
+        <v>267</v>
+      </c>
+      <c r="P29" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q29" s="78">
+        <v>6</v>
+      </c>
+      <c r="R29" s="79" t="s">
+        <v>281</v>
+      </c>
+      <c r="S29" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="T29" s="80" t="s">
+        <v>306</v>
+      </c>
+      <c r="U29" s="78" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="E30" s="70" t="s">
+        <v>263</v>
+      </c>
+      <c r="F30" s="40"/>
+      <c r="G30" s="71" t="s">
+        <v>357</v>
+      </c>
+      <c r="H30" s="35">
+        <v>28</v>
+      </c>
+      <c r="I30" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="J30" s="73" t="s">
+        <v>266</v>
+      </c>
+      <c r="K30" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="L30" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="O30" s="74" t="s">
+        <v>269</v>
+      </c>
+      <c r="P30" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q30" s="78">
+        <v>6</v>
+      </c>
+      <c r="R30" s="79" t="s">
+        <v>281</v>
+      </c>
+      <c r="S30" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="T30" s="80" t="s">
+        <v>376</v>
+      </c>
+      <c r="U30" s="78" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="E31" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="F31" s="40"/>
+      <c r="G31" s="71" t="s">
+        <v>317</v>
+      </c>
+      <c r="H31" s="35">
+        <v>29</v>
+      </c>
+      <c r="I31" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="J31" s="73" t="s">
+        <v>358</v>
+      </c>
+      <c r="K31" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="L31" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="O31" s="74" t="s">
+        <v>270</v>
+      </c>
+      <c r="P31" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q31" s="78">
+        <v>6</v>
+      </c>
+      <c r="R31" s="79" t="s">
+        <v>281</v>
+      </c>
+      <c r="S31" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="T31" s="80" t="s">
+        <v>300</v>
+      </c>
+      <c r="U31" s="78" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="E32" s="70"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="71" t="s">
+        <v>318</v>
+      </c>
+      <c r="H32" s="35">
+        <v>30</v>
+      </c>
+      <c r="I32" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="J32" s="73" t="s">
+        <v>272</v>
+      </c>
+      <c r="K32" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="L32" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="O32" s="74" t="s">
+        <v>273</v>
+      </c>
+      <c r="P32" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q32" s="78">
+        <v>6</v>
+      </c>
+      <c r="R32" s="79" t="s">
+        <v>281</v>
+      </c>
+      <c r="S32" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="T32" s="80" t="s">
+        <v>375</v>
+      </c>
+      <c r="U32" s="78" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="E33" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="F33" s="40"/>
+      <c r="G33" s="71" t="s">
+        <v>366</v>
+      </c>
+      <c r="H33" s="35">
+        <v>31</v>
+      </c>
+      <c r="I33" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="J33" s="73" t="s">
+        <v>275</v>
+      </c>
+      <c r="K33" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="L33" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="O33" s="74" t="s">
+        <v>274</v>
+      </c>
+      <c r="P33" s="75" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q33" s="78">
+        <v>6</v>
+      </c>
+      <c r="R33" s="79" t="s">
+        <v>281</v>
+      </c>
+      <c r="S33" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="T33" s="80" t="s">
+        <v>304</v>
+      </c>
+      <c r="U33" s="78" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D34" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="E34" s="70" t="s">
+        <v>228</v>
+      </c>
+      <c r="F34" s="40"/>
+      <c r="G34" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="H34" s="35">
+        <v>32</v>
+      </c>
+      <c r="I34" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="J34" s="73" t="s">
+        <v>368</v>
+      </c>
+      <c r="K34" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="L34" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="O34" s="74" t="s">
+        <v>369</v>
+      </c>
+      <c r="P34" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q34" s="78">
+        <v>6</v>
+      </c>
+      <c r="R34" s="79" t="s">
+        <v>281</v>
+      </c>
+      <c r="S34" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="T34" s="80" t="s">
+        <v>377</v>
+      </c>
+      <c r="U34" s="78" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="E35" s="70" t="s">
+        <v>228</v>
+      </c>
+      <c r="F35" s="40"/>
+      <c r="G35" s="71" t="s">
+        <v>276</v>
+      </c>
+      <c r="H35" s="35">
+        <v>33</v>
+      </c>
+      <c r="I35" s="72" t="s">
+        <v>204</v>
+      </c>
+      <c r="J35" s="73" t="s">
+        <v>277</v>
+      </c>
+      <c r="K35" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="L35" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="O35" s="74" t="s">
+        <v>370</v>
+      </c>
+      <c r="P35" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q35" s="78">
+        <v>6</v>
+      </c>
+      <c r="R35" s="79" t="s">
+        <v>281</v>
+      </c>
+      <c r="S35" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="T35" s="80" t="s">
         <v>378</v>
       </c>
-      <c r="E1" s="91" t="s">
+      <c r="U35" s="78" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="E36" s="70" t="s">
+        <v>228</v>
+      </c>
+      <c r="F36" s="40"/>
+      <c r="G36" s="71" t="s">
+        <v>233</v>
+      </c>
+      <c r="H36" s="35">
+        <v>34</v>
+      </c>
+      <c r="I36" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="J36" s="73" t="s">
+        <v>234</v>
+      </c>
+      <c r="K36" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="L36" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="74"/>
+      <c r="P36" s="75" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q36" s="78" t="s">
+        <v>214</v>
+      </c>
+      <c r="R36" s="79" t="s">
+        <v>215</v>
+      </c>
+      <c r="S36" s="78" t="s">
+        <v>216</v>
+      </c>
+      <c r="T36" s="81" t="s">
+        <v>232</v>
+      </c>
+      <c r="U36" s="78" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="E37" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="40"/>
+      <c r="G37" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="35">
+        <v>35</v>
+      </c>
+      <c r="I37" s="72"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="74"/>
+      <c r="P37" s="75"/>
+      <c r="Q37" s="78"/>
+      <c r="R37" s="79"/>
+      <c r="S37" s="78"/>
+      <c r="T37" s="81"/>
+      <c r="U37" s="78"/>
+    </row>
+    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="E38" s="70" t="s">
+        <v>372</v>
+      </c>
+      <c r="F38" s="40"/>
+      <c r="G38" s="71" t="s">
+        <v>278</v>
+      </c>
+      <c r="H38" s="35">
+        <v>36</v>
+      </c>
+      <c r="I38" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="J38" s="73" t="s">
+        <v>279</v>
+      </c>
+      <c r="K38" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="L38" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="O38" s="74" t="s">
+        <v>280</v>
+      </c>
+      <c r="P38" s="75" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q38" s="78">
+        <v>6</v>
+      </c>
+      <c r="R38" s="79" t="s">
+        <v>281</v>
+      </c>
+      <c r="S38" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="T38" s="80" t="s">
         <v>379</v>
       </c>
-      <c r="F1" s="93" t="s">
-        <v>380</v>
-      </c>
-      <c r="G1" s="75" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="84" t="s">
-        <v>375</v>
-      </c>
-      <c r="I1" s="86" t="s">
-        <v>214</v>
-      </c>
-      <c r="J1" s="77" t="s">
+      <c r="U38" s="78" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D39" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="E39" s="70"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="35">
+        <v>37</v>
+      </c>
+      <c r="I39" s="72"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="L39" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="74"/>
+      <c r="P39" s="75" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q39" s="78">
         <v>6</v>
       </c>
-      <c r="K1" s="76" t="s">
-        <v>376</v>
-      </c>
-      <c r="L1" s="75" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="78" t="s">
+      <c r="R39" s="79" t="s">
+        <v>281</v>
+      </c>
+      <c r="S39" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="T39" s="80" t="s">
+        <v>307</v>
+      </c>
+      <c r="U39" s="78" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D40" s="41"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="41"/>
+      <c r="H40" s="35"/>
+    </row>
+    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H41" s="37"/>
+    </row>
+    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F42" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="H42" s="35"/>
+    </row>
+    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="D43" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="G43" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="H43" s="37"/>
+      <c r="P43" s="42">
+        <f>COUNTIF(P3:P39,"Sí")</f>
         <v>25</v>
       </c>
-      <c r="N1" s="78"/>
-      <c r="O1" s="72" t="s">
+      <c r="Q43" s="82" t="s">
         <v>208</v>
       </c>
-      <c r="P1" s="72" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q1" s="83" t="s">
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="F44" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="J44" s="42">
+        <f>COUNTIF(I3:I39,"Sí")</f>
+        <v>7</v>
+      </c>
+      <c r="P44" s="42">
+        <f>COUNTIF(P3:P39,"No")</f>
+        <v>10</v>
+      </c>
+      <c r="Q44" s="82" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="J45" s="42">
+        <f>COUNTIF(I3:I39,"No")</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="42" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" s="42" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" s="42" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" s="42" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51" s="42" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" s="42" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="42" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J80" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="L80" s="42" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C81" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="E81" s="42" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="42" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="42" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="R1" s="82" t="s">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="S1" s="80" t="s">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="T1" s="81" t="s">
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="42" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="U1" s="80" t="s">
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="42" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="42" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="G93" s="42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="G94" s="42" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="G95" s="42" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="G96" s="42" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="G97" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="G98" s="42" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G99" s="42" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="41" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="42" t="s">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="G100" s="42" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="G101" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="N2" s="42" t="s">
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="G102" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="80"/>
-    </row>
-    <row r="3" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="D3" s="68" t="s">
-        <v>227</v>
-      </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="46" t="s">
-        <v>228</v>
-      </c>
-      <c r="H3" s="37">
-        <v>1</v>
-      </c>
-      <c r="I3" s="53" t="s">
-        <v>215</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>374</v>
-      </c>
-      <c r="N3" s="36"/>
-      <c r="O3" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="P3" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q3" s="56">
-        <v>6</v>
-      </c>
-      <c r="R3" s="55" t="s">
-        <v>339</v>
-      </c>
-      <c r="S3" s="54" t="s">
-        <v>340</v>
-      </c>
-      <c r="T3" s="57" t="s">
-        <v>341</v>
-      </c>
-      <c r="U3" s="56" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="D4" s="68" t="s">
-        <v>227</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="H4" s="45">
-        <v>2</v>
-      </c>
-      <c r="I4" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="L4" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36" t="s">
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G103" s="42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="G104" s="42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="G105" s="42" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="G106" s="42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="G107" s="42" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="G108" s="42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="G109" s="42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="G110" s="42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="G111" s="42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="G112" s="42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="G113" s="42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="G114" s="42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="G115" s="42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="G116" s="42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="G117" s="42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="G118" s="42" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="G119" s="42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="G120" s="42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="G121" s="42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="G122" s="42" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="G123" s="42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="G124" s="42" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="O4" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="P4" s="50" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q4" s="39">
-        <v>6</v>
-      </c>
-      <c r="R4" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="S4" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="T4" s="51" t="s">
-        <v>353</v>
-      </c>
-      <c r="U4" s="39" t="s">
-        <v>354</v>
-      </c>
-      <c r="W4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="D5" s="68" t="s">
-        <v>227</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="H5" s="37">
-        <v>3</v>
-      </c>
-      <c r="I5" s="43" t="s">
-        <v>215</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="K5" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="L5" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="P5" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q5" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="R5" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="S5" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="T5" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="U5" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="W5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="D6" s="68" t="s">
-        <v>227</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="H6" s="45">
-        <v>4</v>
-      </c>
-      <c r="I6" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="K6" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="L6" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="P6" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q6" s="39">
-        <v>6</v>
-      </c>
-      <c r="R6" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="S6" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="T6" s="51" t="s">
-        <v>355</v>
-      </c>
-      <c r="U6" s="39" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="D7" s="68" t="s">
-        <v>227</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="H7" s="37">
-        <v>5</v>
-      </c>
-      <c r="I7" s="43" t="s">
-        <v>215</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="K7" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="L7" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="P7" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q7" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="R7" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="S7" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="T7" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="U7" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="W7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="D8" s="68" t="s">
-        <v>227</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="47" t="s">
-        <v>248</v>
-      </c>
-      <c r="H8" s="45">
-        <v>6</v>
-      </c>
-      <c r="I8" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="P8" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q8" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="R8" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="S8" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="T8" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="U8" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="W8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="D9" s="68" t="s">
-        <v>227</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="47" t="s">
-        <v>252</v>
-      </c>
-      <c r="H9" s="37">
-        <v>7</v>
-      </c>
-      <c r="I9" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="L9" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="P9" s="50" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q9" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="R9" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="S9" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="T9" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="U9" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="W9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="D10" s="68" t="s">
-        <v>227</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="47" t="s">
-        <v>301</v>
-      </c>
-      <c r="H10" s="45">
-        <v>8</v>
-      </c>
-      <c r="I10" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="K10" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="L10" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="P10" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q10" s="39">
-        <v>6</v>
-      </c>
-      <c r="R10" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="S10" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="T10" s="51" t="s">
-        <v>356</v>
-      </c>
-      <c r="U10" s="39" t="s">
-        <v>354</v>
-      </c>
-      <c r="W10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="D11" s="68" t="s">
-        <v>227</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="47" t="s">
-        <v>381</v>
-      </c>
-      <c r="H11" s="37">
-        <v>9</v>
-      </c>
-      <c r="I11" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="K11" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="L11" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="P11" s="50" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q11" s="39">
-        <v>6</v>
-      </c>
-      <c r="R11" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="S11" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="T11" s="51" t="s">
-        <v>357</v>
-      </c>
-      <c r="U11" s="39" t="s">
-        <v>354</v>
-      </c>
-      <c r="W11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="D12" s="68" t="s">
-        <v>227</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="H12" s="45">
-        <v>10</v>
-      </c>
-      <c r="I12" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="K12" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="L12" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="P12" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q12" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="R12" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="S12" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="T12" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="U12" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="W12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="D13" s="68" t="s">
-        <v>272</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="H13" s="37">
-        <v>11</v>
-      </c>
-      <c r="I13" s="43" t="s">
-        <v>215</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="K13" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="L13" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="M13" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="N13" s="36"/>
-      <c r="O13" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="P13" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q13" s="39">
-        <v>6</v>
-      </c>
-      <c r="R13" s="30" t="s">
-        <v>343</v>
-      </c>
-      <c r="S13" s="39" t="s">
-        <v>344</v>
-      </c>
-      <c r="T13" s="51" t="s">
-        <v>345</v>
-      </c>
-      <c r="U13" s="39" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="D14" s="68" t="s">
-        <v>272</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="H14" s="45">
-        <v>12</v>
-      </c>
-      <c r="I14" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="K14" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="L14" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36" t="s">
+      <c r="G125" s="42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="G126" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="O14" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="P14" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q14" s="39">
-        <v>6</v>
-      </c>
-      <c r="R14" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="S14" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="T14" s="51" t="s">
-        <v>358</v>
-      </c>
-      <c r="U14" s="39" t="s">
-        <v>354</v>
-      </c>
-      <c r="W14" t="s">
-        <v>82</v>
-      </c>
-      <c r="X14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="D15" s="68" t="s">
-        <v>272</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="47" t="s">
-        <v>278</v>
-      </c>
-      <c r="H15" s="37">
-        <v>13</v>
-      </c>
-      <c r="I15" s="43" t="s">
-        <v>215</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="K15" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="L15" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="M15" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="N15" s="36"/>
-      <c r="O15" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="P15" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q15" s="39">
-        <v>6</v>
-      </c>
-      <c r="R15" s="30" t="s">
-        <v>343</v>
-      </c>
-      <c r="S15" s="39" t="s">
-        <v>344</v>
-      </c>
-      <c r="T15" s="51" t="s">
-        <v>347</v>
-      </c>
-      <c r="U15" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="W15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="D16" s="68" t="s">
-        <v>272</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G16" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="H16" s="45">
-        <v>14</v>
-      </c>
-      <c r="I16" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="K16" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="L16" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="O16" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="P16" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q16" s="39">
-        <v>6</v>
-      </c>
-      <c r="R16" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="S16" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="T16" s="51" t="s">
-        <v>359</v>
-      </c>
-      <c r="U16" s="39" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="D17" s="68" t="s">
-        <v>272</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="G17" s="47" t="s">
-        <v>286</v>
-      </c>
-      <c r="H17" s="37">
-        <v>15</v>
-      </c>
-      <c r="I17" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="K17" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="L17" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36" t="s">
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="G127" s="42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="G128" s="42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="G129" s="42" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="G130" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="O17" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="P17" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q17" s="39">
-        <v>6</v>
-      </c>
-      <c r="R17" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="S17" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="T17" s="51" t="s">
-        <v>360</v>
-      </c>
-      <c r="U17" s="39" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="D18" s="68" t="s">
-        <v>272</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G18" s="47" t="s">
-        <v>290</v>
-      </c>
-      <c r="H18" s="45">
-        <v>16</v>
-      </c>
-      <c r="I18" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="L18" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="O18" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="P18" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q18" s="39">
-        <v>6</v>
-      </c>
-      <c r="R18" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="S18" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="T18" s="51" t="s">
-        <v>361</v>
-      </c>
-      <c r="U18" s="39" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="D19" s="68" t="s">
-        <v>272</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="47" t="s">
-        <v>293</v>
-      </c>
-      <c r="H19" s="37">
-        <v>17</v>
-      </c>
-      <c r="I19" s="43" t="s">
-        <v>215</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="K19" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="L19" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="M19" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="N19" s="36"/>
-      <c r="O19" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="P19" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q19" s="39">
-        <v>6</v>
-      </c>
-      <c r="R19" s="30" t="s">
-        <v>343</v>
-      </c>
-      <c r="S19" s="39" t="s">
-        <v>344</v>
-      </c>
-      <c r="T19" s="51" t="s">
-        <v>348</v>
-      </c>
-      <c r="U19" s="39" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="D20" s="68" t="s">
-        <v>272</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="47" t="s">
-        <v>296</v>
-      </c>
-      <c r="H20" s="45">
-        <v>18</v>
-      </c>
-      <c r="I20" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="K20" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="L20" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="O20" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="P20" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q20" s="39">
-        <v>6</v>
-      </c>
-      <c r="R20" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="S20" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="T20" s="51" t="s">
-        <v>362</v>
-      </c>
-      <c r="U20" s="39" t="s">
-        <v>354</v>
-      </c>
-      <c r="W20" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="D21" s="68" t="s">
-        <v>272</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="47" t="s">
-        <v>382</v>
-      </c>
-      <c r="H21" s="37">
-        <v>19</v>
-      </c>
-      <c r="I21" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="K21" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="L21" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="O21" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="P21" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q21" s="39">
-        <v>6</v>
-      </c>
-      <c r="R21" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="S21" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="T21" s="51" t="s">
-        <v>363</v>
-      </c>
-      <c r="U21" s="39" t="s">
-        <v>354</v>
-      </c>
-      <c r="W21" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="C22" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="D22" s="69" t="s">
-        <v>302</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="47" t="s">
-        <v>302</v>
-      </c>
-      <c r="H22" s="45">
-        <v>20</v>
-      </c>
-      <c r="I22" s="43" t="s">
-        <v>215</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="K22" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="L22" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="M22" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="N22" s="36"/>
-      <c r="O22" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="P22" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q22" s="39">
-        <v>6</v>
-      </c>
-      <c r="R22" s="30" t="s">
-        <v>343</v>
-      </c>
-      <c r="S22" s="39" t="s">
-        <v>344</v>
-      </c>
-      <c r="T22" s="51" t="s">
-        <v>349</v>
-      </c>
-      <c r="U22" s="39" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="C23" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="D23" s="69" t="s">
-        <v>302</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="47" t="s">
-        <v>309</v>
-      </c>
-      <c r="H23" s="37">
-        <v>21</v>
-      </c>
-      <c r="I23" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="K23" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="L23" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="O23" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="P23" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q23" s="39">
-        <v>6</v>
-      </c>
-      <c r="R23" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="S23" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="T23" s="51" t="s">
-        <v>364</v>
-      </c>
-      <c r="U23" s="39" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="D24" s="69" t="s">
-        <v>302</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="47" t="s">
-        <v>310</v>
-      </c>
-      <c r="H24" s="45">
-        <v>22</v>
-      </c>
-      <c r="I24" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="K24" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="L24" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36" t="s">
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="G131" s="42" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G132" s="42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="G133" s="42" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="G134" s="42" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="G135" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="O24" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="P24" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q24" s="39">
-        <v>6</v>
-      </c>
-      <c r="R24" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="S24" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="T24" s="51" t="s">
-        <v>365</v>
-      </c>
-      <c r="U24" s="39" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B25" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="C25" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="D25" s="69" t="s">
-        <v>302</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="47" t="s">
-        <v>312</v>
-      </c>
-      <c r="H25" s="37">
-        <v>23</v>
-      </c>
-      <c r="I25" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="K25" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="L25" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="O25" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="P25" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q25" s="39">
-        <v>6</v>
-      </c>
-      <c r="R25" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="S25" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="T25" s="51" t="s">
-        <v>366</v>
-      </c>
-      <c r="U25" s="39" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B26" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="C26" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="D26" s="69" t="s">
-        <v>302</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="47" t="s">
-        <v>383</v>
-      </c>
-      <c r="H26" s="45">
-        <v>24</v>
-      </c>
-      <c r="I26" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="K26" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="L26" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="O26" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="P26" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q26" s="39">
-        <v>6</v>
-      </c>
-      <c r="R26" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="S26" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="T26" s="51" t="s">
-        <v>367</v>
-      </c>
-      <c r="U26" s="39" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="C27" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="D27" s="69" t="s">
-        <v>319</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="H27" s="37">
-        <v>25</v>
-      </c>
-      <c r="I27" s="43" t="s">
-        <v>215</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="K27" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="L27" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="M27" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="N27" s="36"/>
-      <c r="O27" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="P27" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q27" s="39">
-        <v>6</v>
-      </c>
-      <c r="R27" s="30" t="s">
-        <v>343</v>
-      </c>
-      <c r="S27" s="39" t="s">
-        <v>344</v>
-      </c>
-      <c r="T27" s="51" t="s">
-        <v>350</v>
-      </c>
-      <c r="U27" s="39" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="C28" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="D28" s="69" t="s">
-        <v>319</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="47" t="s">
-        <v>384</v>
-      </c>
-      <c r="H28" s="45">
-        <v>26</v>
-      </c>
-      <c r="I28" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="K28" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="L28" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="O28" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="P28" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q28" s="39">
-        <v>6</v>
-      </c>
-      <c r="R28" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="S28" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="T28" s="51" t="s">
-        <v>368</v>
-      </c>
-      <c r="U28" s="39" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="C29" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="D29" s="69" t="s">
-        <v>319</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="47" t="s">
-        <v>385</v>
-      </c>
-      <c r="H29" s="37">
-        <v>27</v>
-      </c>
-      <c r="I29" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="K29" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="L29" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="O29" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="P29" s="50" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q29" s="39">
-        <v>6</v>
-      </c>
-      <c r="R29" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="S29" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="T29" s="51" t="s">
-        <v>369</v>
-      </c>
-      <c r="U29" s="39" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="C30" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="D30" s="69" t="s">
-        <v>256</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="H30" s="45">
-        <v>28</v>
-      </c>
-      <c r="I30" s="43" t="s">
-        <v>215</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="K30" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="L30" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="M30" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="N30" s="36"/>
-      <c r="O30" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="P30" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q30" s="39">
-        <v>6</v>
-      </c>
-      <c r="R30" s="30" t="s">
-        <v>343</v>
-      </c>
-      <c r="S30" s="39" t="s">
-        <v>344</v>
-      </c>
-      <c r="T30" s="51" t="s">
-        <v>351</v>
-      </c>
-      <c r="U30" s="39" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="C31" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="D31" s="69" t="s">
-        <v>256</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="47" t="s">
-        <v>261</v>
-      </c>
-      <c r="H31" s="37">
-        <v>29</v>
-      </c>
-      <c r="I31" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="K31" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="L31" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="P31" s="50" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q31" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="R31" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="S31" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="T31" s="31" t="s">
-        <v>257</v>
-      </c>
-      <c r="U31" s="39" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="C32" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="D32" s="69" t="s">
-        <v>256</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="47" t="s">
-        <v>262</v>
-      </c>
-      <c r="H32" s="45">
-        <v>30</v>
-      </c>
-      <c r="I32" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="K32" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="L32" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="50" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q32" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="R32" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="S32" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="T32" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="U32" s="39" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B33" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="C33" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="D33" s="69" t="s">
-        <v>256</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="47" t="s">
-        <v>330</v>
-      </c>
-      <c r="H33" s="37">
-        <v>31</v>
-      </c>
-      <c r="I33" s="43" t="s">
-        <v>215</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="K33" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="L33" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="O33" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="P33" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q33" s="39">
-        <v>6</v>
-      </c>
-      <c r="R33" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="S33" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="T33" s="51" t="s">
-        <v>370</v>
-      </c>
-      <c r="U33" s="39" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="C34" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="D34" s="70" t="s">
-        <v>217</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="45">
-        <v>32</v>
-      </c>
-      <c r="I34" s="43"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="49"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="39"/>
-    </row>
-    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="C35" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="D35" s="70" t="s">
-        <v>217</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="47" t="s">
-        <v>333</v>
-      </c>
-      <c r="H35" s="37">
-        <v>33</v>
-      </c>
-      <c r="I35" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="K35" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="L35" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="O35" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="P35" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q35" s="39">
-        <v>6</v>
-      </c>
-      <c r="R35" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="S35" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="T35" s="51" t="s">
-        <v>371</v>
-      </c>
-      <c r="U35" s="39" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="C36" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="D36" s="70" t="s">
-        <v>217</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="47" t="s">
-        <v>334</v>
-      </c>
-      <c r="H36" s="45">
-        <v>34</v>
-      </c>
-      <c r="I36" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="K36" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="L36" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="O36" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="P36" s="50" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q36" s="39">
-        <v>6</v>
-      </c>
-      <c r="R36" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="S36" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="T36" s="51" t="s">
-        <v>372</v>
-      </c>
-      <c r="U36" s="39" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B37" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="C37" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="D37" s="70" t="s">
-        <v>217</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="37">
-        <v>35</v>
-      </c>
-      <c r="I37" s="43"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="49"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="39"/>
-      <c r="T37" s="31"/>
-      <c r="U37" s="39"/>
-    </row>
-    <row r="38" spans="1:21" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B38" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="C38" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="D38" s="71" t="s">
-        <v>221</v>
-      </c>
-      <c r="E38" s="59"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="60" t="s">
-        <v>222</v>
-      </c>
-      <c r="H38" s="45">
-        <v>36</v>
-      </c>
-      <c r="I38" s="61" t="s">
-        <v>216</v>
-      </c>
-      <c r="J38" s="62" t="s">
-        <v>338</v>
-      </c>
-      <c r="K38" s="63" t="s">
-        <v>216</v>
-      </c>
-      <c r="L38" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="M38" s="65"/>
-      <c r="N38" s="65" t="s">
-        <v>128</v>
-      </c>
-      <c r="O38" s="66" t="s">
-        <v>223</v>
-      </c>
-      <c r="P38" s="67" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q38" s="39">
-        <v>6</v>
-      </c>
-      <c r="R38" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="S38" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="T38" s="51" t="s">
-        <v>373</v>
-      </c>
-      <c r="U38" s="39" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H39" s="37"/>
-    </row>
-    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" t="s">
-        <v>87</v>
-      </c>
-      <c r="D40" t="s">
-        <v>88</v>
-      </c>
-      <c r="E40" t="s">
-        <v>137</v>
-      </c>
-      <c r="F40" t="s">
-        <v>89</v>
-      </c>
-      <c r="H40" s="45"/>
-    </row>
-    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" t="s">
-        <v>215</v>
-      </c>
-      <c r="D41" s="88" t="s">
-        <v>216</v>
-      </c>
-      <c r="H41" s="37"/>
-    </row>
-    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" t="s">
-        <v>92</v>
-      </c>
-      <c r="E42" t="s">
-        <v>94</v>
-      </c>
-      <c r="F42" t="s">
-        <v>93</v>
-      </c>
-      <c r="G42" t="s">
-        <v>95</v>
-      </c>
-      <c r="H42" s="45"/>
-      <c r="P42">
-        <f>COUNTIF(P3:P38,"Sí")</f>
-        <v>26</v>
-      </c>
-      <c r="Q42" s="48" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>97</v>
-      </c>
-      <c r="J43">
-        <f>COUNTIF(I3:I38,"Sí")</f>
-        <v>10</v>
-      </c>
-      <c r="P43">
-        <f>COUNTIF(P3:P38,"No")</f>
-        <v>8</v>
-      </c>
-      <c r="Q43" s="48" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>374</v>
-      </c>
-      <c r="J44">
-        <f>COUNTIF(I3:I38,"No")</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>99</v>
-      </c>
-      <c r="E46" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>100</v>
-      </c>
-      <c r="E47" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>101</v>
-      </c>
-      <c r="E48" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>103</v>
-      </c>
-      <c r="E50" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>130</v>
-      </c>
-      <c r="C79" t="s">
-        <v>131</v>
-      </c>
-      <c r="E79" t="s">
-        <v>132</v>
-      </c>
-      <c r="J79" t="s">
-        <v>133</v>
-      </c>
-      <c r="L79" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>149</v>
-      </c>
-      <c r="G92" s="38" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="G136" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="G93" s="38" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="G137" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="G94" s="38" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="G138" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="G95" s="38" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>110</v>
-      </c>
-      <c r="G96" s="38" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>111</v>
-      </c>
-      <c r="G97" s="38" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>112</v>
-      </c>
-      <c r="G98" s="38" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>113</v>
-      </c>
-      <c r="G99" s="38" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>114</v>
-      </c>
-      <c r="G100" s="38" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>115</v>
-      </c>
-      <c r="G101" s="38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>116</v>
-      </c>
-      <c r="G102" s="38" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>117</v>
-      </c>
-      <c r="G103" s="38" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>118</v>
-      </c>
-      <c r="G104" s="38" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>119</v>
-      </c>
-      <c r="G105" s="38" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>120</v>
-      </c>
-      <c r="G106" s="38" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>121</v>
-      </c>
-      <c r="G107" s="38" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>122</v>
-      </c>
-      <c r="G108" s="38" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>123</v>
-      </c>
-      <c r="G109" s="38" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>124</v>
-      </c>
-      <c r="G110" s="38" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>125</v>
-      </c>
-      <c r="G111" s="38" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>126</v>
-      </c>
-      <c r="G112" s="38" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>127</v>
-      </c>
-      <c r="G113" s="38" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>128</v>
-      </c>
-      <c r="G114" s="38" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>129</v>
-      </c>
-      <c r="G115" s="38" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="G139" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="G116" s="38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="G140" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="G117" s="38" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="G141" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="G118" s="38" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="G142" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="G119" s="38" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="G143" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="G120" s="38" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="G144" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="G121" s="38" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="G145" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="G122" s="38" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="G146" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="G123" s="38" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="G147" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="G124" s="38" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="G148" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="G125" s="38" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="G149" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="G126" s="38" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="G150" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="G127" s="38" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="G151" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="G128" s="38" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="G152" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="G129" s="38" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="G153" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="G130" s="38" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="G154" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="G131" s="38" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="G155" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="G132" s="38" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="G156" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="G133" s="38" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="G157" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="G134" s="38" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="G158" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="G135" s="38" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="G159" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="G136" s="38" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="G160" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="G137" s="38" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="G161" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="G138" s="38" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="G162" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="G139" s="38" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="G163" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="G140" s="38" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="G164" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="G141" s="38" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="G165" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="G142" s="38" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="G166" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="G143" s="38" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="G167" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="G144" s="38" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="G168" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="G145" s="38" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="G169" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="G146" s="38" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="G170" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="G147" s="38" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="G171" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="G148" s="38" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="G172" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="G149" s="38" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G173" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="G150" s="38" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G174" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="G151" s="38" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G175" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="G152" s="38" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G176" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="G153" s="38" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+    </row>
+    <row r="177" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G177" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="G154" s="38" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+    </row>
+    <row r="178" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G178" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="G155" s="38" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+    </row>
+    <row r="179" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G179" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="G156" s="38" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+    </row>
+    <row r="180" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G180" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="G157" s="38" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+    </row>
+    <row r="181" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G181" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="G158" s="38" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+    </row>
+    <row r="182" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G182" s="42" t="s">
         <v>196</v>
-      </c>
-      <c r="G159" s="38" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>197</v>
-      </c>
-      <c r="G160" s="38" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>198</v>
-      </c>
-      <c r="G161" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>199</v>
-      </c>
-      <c r="G162" s="38" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>200</v>
-      </c>
-      <c r="G163" s="38" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>201</v>
-      </c>
-      <c r="G164" s="38" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>202</v>
-      </c>
-      <c r="G165" s="38" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>203</v>
-      </c>
-      <c r="G166" s="38" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>204</v>
-      </c>
-      <c r="G167" s="38" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>205</v>
-      </c>
-      <c r="G168" s="38" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>206</v>
-      </c>
-      <c r="G169" s="38" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>207</v>
-      </c>
-      <c r="G170" s="38" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G171" s="38" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G172" s="38" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G173" s="38" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G174" s="38" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G175" s="38" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G176" s="38" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="177" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G177" s="38" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="178" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G178" s="38" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="179" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G179" s="38" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="180" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G180" s="38" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="181" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G181" s="38" t="s">
-        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -9549,23 +9476,23 @@
     <mergeCell ref="F1:F2"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V18 P3">
-      <formula1>$W$20:$W$21</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3">
+      <formula1>$W$26:$W$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K38">
-      <formula1>$C$41:$D$41</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K39">
+      <formula1>$C$43:$D$43</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M38">
-      <formula1>$A$44:$A$56</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M39">
+      <formula1>$A$46:$A$58</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N38">
-      <formula1>$A$81:$A$170</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N39">
+      <formula1>$A$83:$A$172</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A38">
-      <formula1>$C$40:$H$40</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L39">
+      <formula1>$C$44:$J$44</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L38">
-      <formula1>$C$42:$J$42</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A40">
+      <formula1>$C$42:$H$42</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fuentes/contenidos/grado09/guion06/ESCALETA_MA_09_06_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion06/ESCALETA_MA_09_06_CO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado09\guion06\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -10,12 +15,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="297">
   <si>
     <t>Asignatura</t>
   </si>
@@ -885,6 +890,30 @@
   </si>
   <si>
     <t>m101ap</t>
+  </si>
+  <si>
+    <t>Autores</t>
+  </si>
+  <si>
+    <t>Johanna Montejo</t>
+  </si>
+  <si>
+    <t>Jairo Saavedra</t>
+  </si>
+  <si>
+    <t>Magda González</t>
+  </si>
+  <si>
+    <t>Adriana Lasprilla</t>
+  </si>
+  <si>
+    <t>Jennifer Rojas</t>
+  </si>
+  <si>
+    <t>Jaennifer Rojas</t>
+  </si>
+  <si>
+    <t>Andrea Santos</t>
   </si>
 </sst>
 </file>
@@ -1208,15 +1237,6 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1260,6 +1280,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1322,7 +1351,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1357,7 +1386,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1566,10 +1595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U181"/>
+  <dimension ref="A1:V181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T45" sqref="T45"/>
+    <sheetView tabSelected="1" topLeftCell="H14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1588,92 +1617,95 @@
     <col min="12" max="12" width="15.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.28515625" style="12" customWidth="1"/>
     <col min="14" max="14" width="14.7109375" style="12" customWidth="1"/>
-    <col min="15" max="15" width="56" style="12" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" style="12" customWidth="1"/>
-    <col min="17" max="17" width="16.140625" style="32" customWidth="1"/>
-    <col min="18" max="18" width="10" style="32" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23" style="32" customWidth="1"/>
-    <col min="21" max="21" width="15" style="32" customWidth="1"/>
+    <col min="15" max="15" width="56" style="12" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" style="12" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" style="32" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="10" style="32" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="32" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="23" style="32" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="15" style="32" hidden="1" customWidth="1"/>
     <col min="22" max="16384" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="14" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:22" s="14" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="45"/>
+      <c r="N1" s="42"/>
       <c r="O1" s="36" t="s">
         <v>112</v>
       </c>
       <c r="P1" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="Q1" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="R1" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="S1" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="38" t="s">
+      <c r="T1" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="37" t="s">
+      <c r="U1" s="52" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="42"/>
+      <c r="V1" s="14" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="39"/>
       <c r="M2" s="13" t="s">
         <v>40</v>
       </c>
@@ -1682,13 +1714,13 @@
       </c>
       <c r="O2" s="36"/>
       <c r="P2" s="36"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="37"/>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q2" s="52"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="52"/>
+    </row>
+    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1746,8 +1778,11 @@
       <c r="U3" s="28" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V3" s="12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1807,8 +1842,11 @@
       <c r="U4" s="28" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V4" s="12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1866,8 +1904,11 @@
       <c r="U5" s="28" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V5" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1924,7 +1965,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1982,8 +2023,11 @@
       <c r="U7" s="28" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V7" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -2043,8 +2087,11 @@
       <c r="U8" s="28" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V8" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2102,8 +2149,11 @@
       <c r="U9" s="28" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V9" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2161,8 +2211,11 @@
       <c r="U10" s="28" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V10" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2221,7 +2274,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -2280,7 +2333,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -2339,7 +2392,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -2399,8 +2452,11 @@
       <c r="U14" s="28" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V14" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -2460,8 +2516,11 @@
       <c r="U15" s="28" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V15" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -2520,7 +2579,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -2578,8 +2637,11 @@
       <c r="U17" s="28" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V17" s="12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -2637,8 +2699,11 @@
       <c r="U18" s="28" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V18" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -2696,8 +2761,11 @@
       <c r="U19" s="28" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V19" s="12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -2757,8 +2825,11 @@
       <c r="U20" s="28" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V20" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -2820,8 +2891,11 @@
       <c r="U21" s="28" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V21" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -2883,8 +2957,11 @@
       <c r="U22" s="28" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V22" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -2942,8 +3019,11 @@
       <c r="U23" s="28" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V23" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -3001,8 +3081,11 @@
       <c r="U24" s="28" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V24" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -3062,8 +3145,11 @@
       <c r="U25" s="28" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V25" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -3123,8 +3209,11 @@
       <c r="U26" s="28" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V26" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -3182,8 +3271,11 @@
       <c r="U27" s="28" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V27" s="12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -3241,8 +3333,11 @@
       <c r="U28" s="28" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V28" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -3302,8 +3397,11 @@
       <c r="U29" s="28" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V29" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -3363,8 +3461,11 @@
       <c r="U30" s="28" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V30" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -3424,8 +3525,11 @@
       <c r="U31" s="28" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V31" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -3483,8 +3587,11 @@
       <c r="U32" s="28" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V32" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -3544,8 +3651,11 @@
       <c r="U33" s="28" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V33" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -3605,8 +3715,11 @@
       <c r="U34" s="28" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V34" s="12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -3666,8 +3779,11 @@
       <c r="U35" s="28" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V35" s="12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -3724,7 +3840,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -3761,7 +3877,7 @@
       <c r="T37" s="31"/>
       <c r="U37" s="28"/>
     </row>
-    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -3821,8 +3937,11 @@
       <c r="U38" s="28" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V38" s="12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -3876,23 +3995,26 @@
       <c r="U39" s="28" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V39" s="12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G40" s="33"/>
       <c r="H40" s="34"/>
       <c r="I40" s="33"/>
     </row>
-    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G41" s="33"/>
       <c r="H41" s="35"/>
       <c r="I41" s="33"/>
     </row>
-    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G42" s="33"/>
       <c r="H42" s="34"/>
       <c r="I42" s="33"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
       <c r="I43" s="33"/>
@@ -4658,6 +4780,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -4672,12 +4800,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3">

--- a/fuentes/contenidos/grado09/guion06/ESCALETA_MA_09_06_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion06/ESCALETA_MA_09_06_CO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="296">
   <si>
     <t>Asignatura</t>
   </si>
@@ -908,9 +908,6 @@
   </si>
   <si>
     <t>Jennifer Rojas</t>
-  </si>
-  <si>
-    <t>Jaennifer Rojas</t>
   </si>
   <si>
     <t>Andrea Santos</t>
@@ -1597,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="H17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2958,7 +2955,7 @@
         <v>199</v>
       </c>
       <c r="V22" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -3146,7 +3143,7 @@
         <v>199</v>
       </c>
       <c r="V25" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -3272,7 +3269,7 @@
         <v>193</v>
       </c>
       <c r="V27" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -3334,7 +3331,7 @@
         <v>199</v>
       </c>
       <c r="V28" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -3398,7 +3395,7 @@
         <v>199</v>
       </c>
       <c r="V29" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -3462,7 +3459,7 @@
         <v>199</v>
       </c>
       <c r="V30" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -3526,7 +3523,7 @@
         <v>199</v>
       </c>
       <c r="V31" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -3588,7 +3585,7 @@
         <v>199</v>
       </c>
       <c r="V32" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -3652,7 +3649,7 @@
         <v>199</v>
       </c>
       <c r="V33" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">

--- a/fuentes/contenidos/grado09/guion06/ESCALETA_MA_09_06_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion06/ESCALETA_MA_09_06_CO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="297">
   <si>
     <t>Asignatura</t>
   </si>
@@ -908,6 +908,9 @@
   </si>
   <si>
     <t>Jennifer Rojas</t>
+  </si>
+  <si>
+    <t>Jaennifer Rojas</t>
   </si>
   <si>
     <t>Andrea Santos</t>
@@ -1594,8 +1597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H17" sqref="A17:XFD17"/>
+    <sheetView tabSelected="1" topLeftCell="H14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2955,7 +2958,7 @@
         <v>199</v>
       </c>
       <c r="V22" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -3143,7 +3146,7 @@
         <v>199</v>
       </c>
       <c r="V25" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -3269,7 +3272,7 @@
         <v>193</v>
       </c>
       <c r="V27" s="12" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -3331,7 +3334,7 @@
         <v>199</v>
       </c>
       <c r="V28" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -3395,7 +3398,7 @@
         <v>199</v>
       </c>
       <c r="V29" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -3459,7 +3462,7 @@
         <v>199</v>
       </c>
       <c r="V30" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -3523,7 +3526,7 @@
         <v>199</v>
       </c>
       <c r="V31" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -3585,7 +3588,7 @@
         <v>199</v>
       </c>
       <c r="V32" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -3649,7 +3652,7 @@
         <v>199</v>
       </c>
       <c r="V33" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
